--- a/topic_split/topic_11.xlsx
+++ b/topic_split/topic_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>issue</t>
   </si>
@@ -22,48 +22,44 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[3.50219991e-308 2.10818942e-308 4.83643632e-308 2.04701085e-308
- 5.48507524e-308 7.53210969e-308 1.20796870e-307 1.43323620e-307
- 7.33020350e-308 5.07397875e-308 1.00000000e+000 6.15586813e-308
- 1.23908597e-307 2.69966774e-308 1.10638474e-307 6.01859870e-308
- 6.83619880e-308 8.47346120e-308 9.26687004e-308 7.36080422e-308
- 8.60946574e-308 9.94645870e-308 1.35668062e-307 5.68296542e-308
- 9.75809139e-308]</t>
-  </si>
-  <si>
-    <t>[0.00952161 0.00732483 0.01592919 0.00719009 0.01363193 0.01886262
- 0.04856186 0.05515041 0.02560696 0.01305869 0.05413764 0.0181208
- 0.05817074 0.00955156 0.04430375 0.01419869 0.0166196  0.03082216
- 0.01850016 0.01765943 0.02999423 0.01984908 0.0472959  0.01471718
- 0.02317528]</t>
-  </si>
-  <si>
-    <t>[0.00878774 0.00582259 0.01309944 0.00568663 0.01337302 0.01915029
- 0.0402221  0.06213522 0.02047634 0.01191975 0.11315187 0.01553746
- 0.04123828 0.00749956 0.03954498 0.01342488 0.01649573 0.02643267
- 0.01853201 0.01647711 0.02453673 0.02059398 0.04290039 0.01343339
- 0.02148221]</t>
-  </si>
-  <si>
-    <t>[3.62304921e-308 2.05521385e-308 4.65440769e-308 1.99807545e-308
- 5.77387466e-308 8.28094370e-308 1.14069646e-307 1.52382269e-307
- 6.79032656e-308 5.00206277e-308 1.00000000e+000 5.80745395e-308
- 1.08582480e-307 2.61281522e-308 1.14200752e-307 5.96125840e-308
- 7.33682621e-308 8.65256192e-308 9.06582831e-308 7.16206176e-308
- 8.00188698e-308 1.03668479e-307 1.35776323e-307 5.59159373e-308
- 8.76535533e-308]</t>
-  </si>
-  <si>
-    <t>[3.49043672e-308 2.09221794e-308 4.64244944e-308 2.03743624e-308
- 5.40000185e-308 7.98797816e-308 1.33579720e-307 2.01910781e-307
- 6.96531868e-308 4.71202856e-308 1.00000000e+000 5.65407132e-308
- 1.23916705e-307 2.67268061e-308 1.36032451e-307 5.45571573e-308
- 6.91417832e-308 9.63975939e-308 7.86185654e-308 6.60172691e-308
- 8.20976997e-308 9.04879297e-308 1.41499347e-307 5.30183603e-308
- 8.14198019e-308]</t>
+    <t>Risk Watch updates (from Risk Watch updates Q4 2023 – Q1 2024 #326)
+## Details - In this ticket, we have sepearated out the items that have not been kicked-off yet from the #326 ) ticket ### New Features (High priority) Some of these will take some time, but we need to get started on them: - [ ] Automate filling of fields in the Field Reports and DREF requests with data from the Montandon: - Maps (including population exposed, branch locations, key cities) - Population exposed/potentially affected - Number of people at risk of displacement - [ ] Automated alert to NS based on impact forecast model outputs--via the Montandon - [ ] Semi-automated crisis categorisation using the data from the Montandon (formula to be determined) - [ ] Apply filter to map to toggle on/off the display of red/orange/yellow emergencies based on crisis categorisation - [ ] For the regional and country pages seasonal risk, for the food insecurity metric please add the data from FEWS NET to that from IPC (see screenshot below from [FEWS NET](https://fews.net/sites/default/files/2023-11/FAOB-November%202023.pdf)):  - [ ] On country pages, please update tables of impacts per return period based on data from the Montandon (this will involve Hamish) - [ ] For all impact forecasts, associate the predicted values with past events of a similar magnitude and indicate the return period associated with the magnitude of each impact (this will also involve Hamish) - [ ] Incorporate the 1-in-2 and 1-in-5-year flood forecasts from GloFAS and Google (once ready -- will involve Justin and possibly Hamish) ### New Features (Medium priority) ### New Features (Low priority)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Usability] Appeal documents sortable on emergency pages
+Hi there, at the start of an Appeal there will be only a couple of documents so sort order doesn't matter and I can just eyeball them.
+However for larger appeals there are multiple pages of documents.
+For some reason these days they are shown in _ascending_ date order (was that a deliberate choice???) so to get to the most recent document for e.g. [Ukraine response](https://go.ifrc.org/emergencies/5854/reports) I have to click through "next page" several times.  When I first load the page I can't even see if there **IS** a new doc since last I looked.
+Usability requests:
+- add buttons to the table so the user is able to _sort_ the Appeal docs by the various fields (date, location, description etc.)
+- ideally also add ability to _filter/search_ by the relevant fields in the table also
+- if it wasn't deliberate to start with the oldest doc, suggest reversing the table order so most recent shows first.
+Thanks!
+@mariam-yu </t>
+  </si>
+  <si>
+    <t>GO user feedback from GO Study
+These user feedback items needs to be investigated. If they are valid issues, requests, individual sub-tasks can be created from the list items.
+- [ ] On the field reports &gt; adding provinces, when clicking on see more doesn't work, so some extra provinces remain hidden/not possible to select.
+- [ ] Risk didn't translate to Spanish (as well as some tables?)
+- [ ] DREF sharing - at some point not possible to share with people from within the form (first page), while it was necessary.</t>
+  </si>
+  <si>
+    <t>[PROD] Seasonal Risk Info
+A few issues still with the seasonal risk tab:
+- [x] "Normalize by population" is not working for Risk Score, Exposure, and People at Risk of Displacement (@frozenhelium is aware of this one) -- to reproduce select "Risk Score" then select "Tropical Cyclone" then select "November, December, January, and February" and then toggle back and forth between the absolute and normalized risk scores. It does not make sense for China to come to the top of the normalized list -- if anything, it's risk rating and ranking should decrease when we normalize by population.
+- [x] "Include coping capacity" is missing from the Risk Score metrics
+- [x] Remove "Include coping capacity" from the risk metrics and map for People Exposed and People at Risk of Displacement</t>
+  </si>
+  <si>
+    <t>new naming convention - impact on search - being able to find the emergency I'm looking for
+Hi there, under https://github.com/IFRCGo/go-web-app/issues/1688 there is a conversation re the new structure that has been put in place for auto-naming emergencies according to a pre-specified format.
+Separate to the question around whether this design caters well for all necessary scenarios, I wanted to check in specifically about **search** under the new design.
+If the desired wording (e.g. the country, or the specific location) is no longer present in the title and it is instead a country "code", will the Search functionality be made smart enough to allow the user to find it still with the country name?
+e.g. if I search for "Philippines Typhoons" I want this to still come up in search even though the title now has "PHL" instead of "Philippines":  
+`PHL: Cyclone - 10-2024 - Typhoons and Floods`
+I am not sure if this is a new requirement (in which case it is urgent) or if it has already been thought about.  But it is critical if changing the structure of the name.
+Thanks</t>
   </si>
 </sst>
 </file>
@@ -421,76 +417,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>23</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>37</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>55</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>64</v>
       </c>
       <c r="B6">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
